--- a/WordDB50.xlsx
+++ b/WordDB50.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{651E4871-214E-E448-A4B5-AABD56E9CCBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{EA93FC8E-2B30-B44E-856D-00C598A5A268}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Baffled</t>
+  </si>
+  <si>
+    <t>Updated</t>
   </si>
 </sst>
 </file>
@@ -529,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636A0C0C-01B0-2141-91C9-A5E1870F18EE}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -794,6 +797,11 @@
         <v>50</v>
       </c>
     </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WordDB50.xlsx
+++ b/WordDB50.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{651E4871-214E-E448-A4B5-AABD56E9CCBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mick Pl\Documents\Internet et technologie HIVER_2019\HangmanV0.01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AABD0D7-5464-452E-A264-CCBF75A0111D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -178,6 +183,9 @@
   </si>
   <si>
     <t>Baffled</t>
+  </si>
+  <si>
+    <t>Updated</t>
   </si>
 </sst>
 </file>
@@ -529,209 +537,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636A0C0C-01B0-2141-91C9-A5E1870F18EE}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -739,59 +747,64 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
